--- a/LDV_Data.xlsx
+++ b/LDV_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\FAVs_Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAFB8B0-EEFB-46A0-9136-AAA3CA2C0680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E25DA7C-9CF3-4012-8C5A-BE83787622F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE33827-4322-4BD1-9624-0366949F140D}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -888,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6089F3A3-B933-43E9-8E92-242433A56B01}">
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>35.5</v>
+        <v>-35.5</v>
       </c>
       <c r="L2">
         <v>7.1000000000000005</v>
@@ -1208,10 +1210,10 @@
         <v>15.9</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>48.037836661553541</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>14.411350998466062</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1220,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>69.05</v>
+        <v>-69.05</v>
       </c>
       <c r="L4">
         <v>2.7577164466275392</v>
@@ -1244,10 +1246,10 @@
         <v>0.11313708498984708</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>4.2986362569176588</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.2895908770752975</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1262,10 +1264,10 @@
         <v>0.19195887136493303</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1.6931524382000576</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.5079457314600172</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -1318,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>52.3</v>
+        <v>-52.3</v>
       </c>
       <c r="L5">
         <v>10.46</v>
@@ -1360,10 +1362,10 @@
         <v>0.43481564960623803</v>
       </c>
       <c r="Y5">
-        <v>-3.2767682982263873</v>
+        <v>-3.3358934268816927</v>
       </c>
       <c r="Z5">
-        <v>0.32767682982263874</v>
+        <v>0.33358934268816931</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1404,10 +1406,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-21.899453175314246</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>6.569835952594274</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1416,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>64.900000000000006</v>
+        <v>-64.900000000000006</v>
       </c>
       <c r="L6">
         <v>12.980000000000002</v>
@@ -1452,16 +1454,16 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>-0.76952999566398139</v>
+        <v>-0.77463743399739093</v>
       </c>
       <c r="X6">
-        <v>7.6952999566398145E-2</v>
+        <v>7.7463743399739105E-2</v>
       </c>
       <c r="Y6">
-        <v>-1.3393662082496038</v>
+        <v>-1.3444736465830136</v>
       </c>
       <c r="Z6">
-        <v>0.13393662082496038</v>
+        <v>0.13444736465830137</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1514,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>65.2</v>
+        <v>-65.2</v>
       </c>
       <c r="L7">
         <v>13.040000000000001</v>
@@ -1600,10 +1602,10 @@
         <v>14.100000000000001</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>-19.961429878840377</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.9884289636521126</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1612,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>62.5</v>
+        <v>-62.5</v>
       </c>
       <c r="L8">
         <v>6.0811183182043047</v>
@@ -1648,16 +1650,16 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>-0.7790116799486988</v>
+        <v>-0.78013118430588069</v>
       </c>
       <c r="X8">
-        <v>0.24078496349734213</v>
+        <v>0.2390463768347531</v>
       </c>
       <c r="Y8">
-        <v>-1.3256779608482718</v>
+        <v>-1.3290364739198177</v>
       </c>
       <c r="Z8">
-        <v>0.13256779608482719</v>
+        <v>0.13290364739198177</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1710,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>47.6</v>
+        <v>-47.6</v>
       </c>
       <c r="L9">
         <v>9.5200000000000014</v>
@@ -1737,7 +1739,7 @@
         <v>4.3516795510741781</v>
       </c>
       <c r="T9">
-        <v>0.8703359102148357</v>
+        <v>1.3055038653222535</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1796,10 +1798,10 @@
         <v>15.36</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>-36.996452467197493</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>11.098935740159247</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1808,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>64.5</v>
+        <v>-64.5</v>
       </c>
       <c r="L10">
         <v>12.9</v>
@@ -1835,7 +1837,7 @@
         <v>5.7</v>
       </c>
       <c r="T10">
-        <v>1.1400000000000001</v>
+        <v>1.71</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1906,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>62.949999999999996</v>
+        <v>-62.949999999999996</v>
       </c>
       <c r="L11">
         <v>14.354267658086917</v>
@@ -1930,10 +1932,10 @@
         <v>0.33842367040711524</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>5.8290155961764212</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1.7487046788529264</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1992,10 +1994,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>-28.986481274746431</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8.6959443824239298</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2004,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>72.400000000000006</v>
+        <v>-72.400000000000006</v>
       </c>
       <c r="L12">
         <v>14.480000000000002</v>
@@ -2090,10 +2092,10 @@
         <v>1.9798989873223309</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>23.077500195159161</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.9232500585477483</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2102,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>71.349999999999994</v>
+        <v>-71.349999999999994</v>
       </c>
       <c r="L13">
         <v>0.21213203435596226</v>
@@ -2188,10 +2190,10 @@
         <v>17.919999999999998</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>23.479493637232562</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.0438480911697683</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2200,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>75.95</v>
+        <v>-75.95</v>
       </c>
       <c r="L14">
         <v>1.7677669529663689</v>
@@ -2224,10 +2226,10 @@
         <v>0.12386456745908143</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>5.2110181116887464</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1.5633054335066239</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -2242,10 +2244,10 @@
         <v>0.26517043543960583</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>1.7592654699420924</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>0.52777964098262775</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -2298,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>50.2</v>
+        <v>-50.2</v>
       </c>
       <c r="L15">
         <v>10.040000000000001</v>
@@ -2340,10 +2342,10 @@
         <v>0.19266133346212666</v>
       </c>
       <c r="Y15">
-        <v>-2.7455295385239036</v>
+        <v>-2.7503871303913323</v>
       </c>
       <c r="Z15">
-        <v>0.27455295385239037</v>
+        <v>0.27503871303913324</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -2396,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>52.3</v>
+        <v>-52.3</v>
       </c>
       <c r="L16">
         <v>10.46</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>60.8</v>
+        <v>-60.8</v>
       </c>
       <c r="L17">
         <v>12.16</v>
@@ -2592,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>77</v>
+        <v>-77</v>
       </c>
       <c r="L18">
         <v>15.4</v>
@@ -2690,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>77.2</v>
+        <v>-77.2</v>
       </c>
       <c r="L19">
         <v>15.440000000000001</v>
@@ -2800,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.4</v>
+        <v>-22.4</v>
       </c>
       <c r="P20">
         <v>4.4799999999999995</v>
@@ -2830,10 +2832,10 @@
         <v>0.75108897030238064</v>
       </c>
       <c r="Y20">
-        <v>-3.9061740079489713</v>
+        <v>-3.9201461910849593</v>
       </c>
       <c r="Z20">
-        <v>0.39061740079489715</v>
+        <v>0.39201461910849594</v>
       </c>
       <c r="AA20">
         <v>0</v>
@@ -3082,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>87.166666666666671</v>
+        <v>-87.166666666666671</v>
       </c>
       <c r="L23">
         <v>9.6032980445955829</v>
@@ -3106,10 +3108,10 @@
         <v>0.22642182954226633</v>
       </c>
       <c r="S23">
-        <v>6.4778825928699648</v>
+        <v>6.2990870042786984</v>
       </c>
       <c r="T23">
-        <v>0.62322247487489713</v>
+        <v>0.39341315694429974</v>
       </c>
       <c r="U23">
         <v>-2.4439852847693184</v>
@@ -3180,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>81.650000000000006</v>
+        <v>-81.650000000000006</v>
       </c>
       <c r="L24">
         <v>2.8991378028648507</v>
@@ -3222,10 +3224,10 @@
         <v>5.7820494749584374E-2</v>
       </c>
       <c r="Y24">
-        <v>-2.9836961196573935</v>
+        <v>-2.8276794821105389</v>
       </c>
       <c r="Z24">
-        <v>0.29836961196573936</v>
+        <v>0.28276794821105389</v>
       </c>
       <c r="AA24">
         <v>0</v>
@@ -3278,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>85</v>
+        <v>-85</v>
       </c>
       <c r="L25">
         <v>1.9798989873223412</v>
@@ -3376,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>84.5</v>
+        <v>-84.5</v>
       </c>
       <c r="L26">
         <v>0.84852813742384892</v>
@@ -3412,16 +3414,16 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>-2.8610142090574349</v>
+        <v>-2.8211752590428381</v>
       </c>
       <c r="X26">
-        <v>0.17561984396346644</v>
+        <v>0.20610140832652632</v>
       </c>
       <c r="Y26">
-        <v>-3.0782771939431002</v>
+        <v>-2.9388408688920098</v>
       </c>
       <c r="Z26">
-        <v>0.30782771939431003</v>
+        <v>0.29388408688920098</v>
       </c>
       <c r="AA26">
         <v>0</v>
@@ -3474,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>73.2</v>
+        <v>-73.2</v>
       </c>
       <c r="L27">
         <v>14.64</v>
@@ -3510,10 +3512,10 @@
         <v>0.73946221305207904</v>
       </c>
       <c r="W27">
-        <v>-1.401596928727227</v>
+        <v>-1.4674870098367794</v>
       </c>
       <c r="X27">
-        <v>0.2680559871180897</v>
+        <v>0.23928277073922599</v>
       </c>
       <c r="Y27">
         <v>-2.5613143270651131</v>
@@ -3572,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>74.7</v>
+        <v>-74.7</v>
       </c>
       <c r="L28">
         <v>14.940000000000001</v>
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>71.8</v>
+        <v>-71.8</v>
       </c>
       <c r="L29">
         <v>3.8183766184073606</v>
@@ -3768,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>86.75</v>
+        <v>-86.75</v>
       </c>
       <c r="L30">
         <v>20.435385976291212</v>
@@ -3866,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>94.85</v>
+        <v>-94.85</v>
       </c>
       <c r="L31">
         <v>6.8589357775095134</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>96.65</v>
+        <v>-96.65</v>
       </c>
       <c r="L32">
         <v>7.2831998462214376</v>
@@ -4062,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>102</v>
+        <v>-102</v>
       </c>
       <c r="L33">
         <v>20.400000000000002</v>
@@ -4092,10 +4094,10 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>8.3800000000000008</v>
+        <v>-2.4710008152216774</v>
       </c>
       <c r="V33">
-        <v>0.83800000000000008</v>
+        <v>0.24710008152216775</v>
       </c>
       <c r="W33">
         <v>-4.9827157586780739</v>
@@ -4160,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>97.9</v>
+        <v>-97.9</v>
       </c>
       <c r="L34">
         <v>19.580000000000002</v>
@@ -4258,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>104</v>
+        <v>-104</v>
       </c>
       <c r="L35">
         <v>20.8</v>
@@ -4294,10 +4296,10 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>-4.8811502522142636</v>
+        <v>-4.8811502522142618</v>
       </c>
       <c r="X35">
-        <v>0.52309835760605838</v>
+        <v>0.52309835760605849</v>
       </c>
       <c r="Y35">
         <v>-3.6970513553893394</v>
@@ -4356,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>106.5</v>
+        <v>-106.5</v>
       </c>
       <c r="L36">
         <v>7.7781745930520225</v>
@@ -4454,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>108.55</v>
+        <v>-108.55</v>
       </c>
       <c r="L37">
         <v>6.4346717087975787</v>
@@ -4650,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>106</v>
+        <v>-106</v>
       </c>
       <c r="L39">
         <v>21.200000000000003</v>
@@ -4748,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>104.5</v>
+        <v>-104.5</v>
       </c>
       <c r="L40">
         <v>20.900000000000002</v>
@@ -4906,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="AE41">
-        <v>5.5</v>
+        <v>119.5</v>
       </c>
       <c r="AF41">
-        <v>0.55000000000000004</v>
+        <v>11.950000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
@@ -4926,10 +4928,10 @@
         <v>144</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>103.52697042466696</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>9.3234658313894911</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4944,28 +4946,28 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>-101.25</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>2.616295090390218</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>39.263581419041103</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>3.9263581419041103</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>-25.4</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>5.08</v>
       </c>
       <c r="Q42">
-        <v>10.897176994573547</v>
+        <v>11.228588497286774</v>
       </c>
       <c r="R42">
-        <v>2.1794353989147095</v>
+        <v>0.46868664186349301</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -4974,22 +4976,22 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>-4.7288634003623429</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>0.47288634003623431</v>
       </c>
       <c r="W42">
-        <v>0</v>
+        <v>-5.2333333333333334</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>1.112669462748634</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>-3.2984101642288639</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>0.32984101642288643</v>
       </c>
       <c r="AA42">
         <v>0</v>
@@ -4998,16 +5000,16 @@
         <v>0</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>53.367471891350327</v>
       </c>
       <c r="AD42">
         <v>0</v>
       </c>
       <c r="AE42">
-        <v>0</v>
+        <v>177.33333333333334</v>
       </c>
       <c r="AF42">
-        <v>0</v>
+        <v>1.5275252316519465</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
@@ -5024,10 +5026,10 @@
         <v>145</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>105.3</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>10.147413463538379</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -5042,16 +5044,16 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>-101.5</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>20.3</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>48.65142588839673</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>4.8651425888396735</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -5060,10 +5062,10 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>11.073997910243794</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>0.41861016982400551</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -5072,16 +5074,16 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>-4.6206677029196719</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>0.46206677029196719</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>-4.6932697625923261</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>0.43196259289234062</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -5102,10 +5104,10 @@
         <v>0</v>
       </c>
       <c r="AE43">
-        <v>0</v>
+        <v>216.5</v>
       </c>
       <c r="AF43">
-        <v>0</v>
+        <v>0.70710678118654757</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -5122,16 +5124,16 @@
         <v>146</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>94.933333333333323</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>3.1134118476894996</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>14.900000000000002</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2.9800000000000004</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -5140,52 +5142,52 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>-94.59999999999998</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>3.9000000000000039</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>60.9</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>6.09</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>-21.7</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>4.34</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>10.434999999999999</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>0.13435028842544369</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>6.6174999999999997</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>0.39969780251251513</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>-3.026445384002864</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>0.61996368271165692</v>
       </c>
       <c r="W44">
-        <v>0</v>
+        <v>-3.7507381994103208</v>
       </c>
       <c r="X44">
-        <v>0</v>
+        <v>0.2021243688685114</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>-4.0049521822614871</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>0.12346444655937186</v>
       </c>
       <c r="AA44">
         <v>0</v>
@@ -5194,16 +5196,16 @@
         <v>0</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>48.472961613897454</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>4.8472961613897461</v>
       </c>
       <c r="AE44">
-        <v>0</v>
+        <v>83.875</v>
       </c>
       <c r="AF44">
-        <v>0</v>
+        <v>0.17677669529663689</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -5220,10 +5222,10 @@
         <v>147</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>96.833333333333329</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>2.9704096238285618</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -5238,10 +5240,10 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>-103</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -5256,10 +5258,10 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>10.655000000000001</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>0.23334523779156074</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -5274,16 +5276,16 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>-3.8064674031393619</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>0.15897540206098351</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>-3.6274786280355475</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>0.36274786280355475</v>
       </c>
       <c r="AA45">
         <v>0</v>
@@ -5298,10 +5300,10 @@
         <v>0</v>
       </c>
       <c r="AE45">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="AF45">
-        <v>0</v>
+        <v>10.600000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
@@ -5318,10 +5320,10 @@
         <v>148</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -5336,10 +5338,10 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>-98.4</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>19.680000000000003</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -5354,10 +5356,10 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>10.361775178295694</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>2.0723550356591391</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -5372,10 +5374,10 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>-3.7529626300087369</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>0.75059252600174742</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -5416,10 +5418,10 @@
         <v>149</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>15.556349186104045</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -5434,16 +5436,16 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>-113.5</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>12.020815280171307</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>56.6</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -5452,34 +5454,34 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>11.375613387532628</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>0.34734978374903991</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>6.98</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>0.36769552621700502</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>-3.4655785856363197</v>
       </c>
       <c r="V47">
-        <v>0</v>
+        <v>0.77563250854942145</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>-4.657686439482525</v>
       </c>
       <c r="X47">
-        <v>0</v>
+        <v>0.43782746612186629</v>
       </c>
       <c r="Y47">
-        <v>0</v>
+        <v>-3.914566066011969</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>0.21552936573178938</v>
       </c>
       <c r="AA47">
         <v>0</v>
@@ -5494,10 +5496,10 @@
         <v>0</v>
       </c>
       <c r="AE47">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AF47">
-        <v>0</v>
+        <v>2.1213203435596424</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
@@ -5514,16 +5516,16 @@
         <v>150</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>114.36666666666667</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>20.590369917350429</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>3.1000000000000014</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>0.31000000000000016</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -5532,16 +5534,16 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>-91.1</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>18.22</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>73.3</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>7.33</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -5550,34 +5552,34 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>0.1652271164185832</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>7.1433333333333335</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>0.36828431046317112</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>-3.4031092173321698</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>0.30120537916316698</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>-4.4678337478400705</v>
       </c>
       <c r="X48">
-        <v>0</v>
+        <v>0.28281797910706313</v>
       </c>
       <c r="Y48">
-        <v>0</v>
+        <v>-4.2530112003556733</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>0.29719362983561609</v>
       </c>
       <c r="AA48">
         <v>0</v>
@@ -5586,16 +5588,16 @@
         <v>0</v>
       </c>
       <c r="AC48">
-        <v>0</v>
+        <v>77.464788732394354</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>7.7464788732394361</v>
       </c>
       <c r="AE48">
-        <v>0</v>
+        <v>86.283333333333346</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>7.5306872196367154</v>
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
@@ -5612,16 +5614,16 @@
         <v>151</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>73.524218355999992</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.10717142872373359</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -5630,10 +5632,10 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>-61.2</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>12.240000000000002</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -5648,34 +5650,34 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>7.5390552184404918</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>1.5078110436880985</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>5.26</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>0.3111269837220812</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>-2.0268003854206307</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>0.20268003854206307</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>-1.1774430683799608</v>
       </c>
       <c r="X49">
-        <v>0</v>
+        <v>0.17171978778774144</v>
       </c>
       <c r="Y49">
-        <v>0</v>
+        <v>-2.4955975203082872</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>0.37285174568113311</v>
       </c>
       <c r="AA49">
         <v>0</v>
@@ -5690,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="AE49">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="AF49">
-        <v>0</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
@@ -5710,10 +5712,10 @@
         <v>152</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>80.262301825000009</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>3.164583107582521</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -5728,10 +5730,10 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>-70.099999999999994</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>14.02</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -5746,34 +5748,34 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>7.993297276476711</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>1.5986594552953424</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>5.71</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>1.1420000000000001</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>-2.087498225774242</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>0.20874982257742422</v>
       </c>
       <c r="W50">
-        <v>0</v>
+        <v>-1.4403667064642687</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>0.12779782186875707</v>
       </c>
       <c r="Y50">
-        <v>0</v>
+        <v>-2.9744131271515162</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>0.59488262543030324</v>
       </c>
       <c r="AA50">
         <v>0</v>
@@ -5788,10 +5790,10 @@
         <v>0</v>
       </c>
       <c r="AE50">
-        <v>0</v>
+        <v>57.75</v>
       </c>
       <c r="AF50">
-        <v>0</v>
+        <v>0.35355339059327379</v>
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
@@ -5808,16 +5810,16 @@
         <v>153</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>15.42</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>31.8</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -5826,10 +5828,10 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>-76.099999999999994</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>15.219999999999999</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -5844,34 +5846,34 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>9.0261907024857795</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>1.805238140497156</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>6.4024999999999999</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>1.2805</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>-2.5192965017072471</v>
       </c>
       <c r="V51">
-        <v>0</v>
+        <v>0.25192965017072472</v>
       </c>
       <c r="W51">
-        <v>0</v>
+        <v>-2.4598699455590731</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>0.15642979300815249</v>
       </c>
       <c r="Y51">
-        <v>0</v>
+        <v>-4.394146080414064</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>0.87882921608281284</v>
       </c>
       <c r="AA51">
         <v>0</v>
@@ -5886,10 +5888,10 @@
         <v>0</v>
       </c>
       <c r="AE51">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AF51">
-        <v>0</v>
+        <v>7.6000000000000005</v>
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
@@ -5906,10 +5908,10 @@
         <v>154</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>75.781575455999999</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.59174166495458358</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -5924,10 +5926,10 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>-63.8</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>12.76</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -5942,34 +5944,34 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>7.6883741411623454</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>2.9662200729643009E-2</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>5.2862499999999999</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>1.9445436482629957E-2</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>-2.0211488467732268</v>
       </c>
       <c r="V52">
-        <v>0</v>
+        <v>0.20211488467732269</v>
       </c>
       <c r="W52">
-        <v>0</v>
+        <v>-1.1641242474646873</v>
       </c>
       <c r="X52">
-        <v>0</v>
+        <v>0.17316928979703319</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>-3.2807232746151485</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>0.44450077171695862</v>
       </c>
       <c r="AA52">
         <v>0</v>
@@ -5984,10 +5986,10 @@
         <v>0</v>
       </c>
       <c r="AE52">
-        <v>0</v>
+        <v>29.083333333333332</v>
       </c>
       <c r="AF52">
-        <v>0</v>
+        <v>0.38188130791298669</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
@@ -6004,10 +6006,10 @@
         <v>155</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>85.341688061999989</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1.7560120975171565</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -6022,10 +6024,10 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>-83</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -6040,34 +6042,34 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>9.5373355406932241</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>6.3127937921744814E-2</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>6.665</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>0.16263455967290624</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>-2.7974636144117242</v>
       </c>
       <c r="V53">
-        <v>0</v>
+        <v>0.27974636144117243</v>
       </c>
       <c r="W53">
-        <v>0</v>
+        <v>-3.0448145015084096</v>
       </c>
       <c r="X53">
-        <v>0</v>
+        <v>0.24189740086566169</v>
       </c>
       <c r="Y53">
-        <v>0</v>
+        <v>-4.9647746188766853</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>0.83075341006422276</v>
       </c>
       <c r="AA53">
         <v>0</v>
@@ -6082,10 +6084,10 @@
         <v>0</v>
       </c>
       <c r="AE53">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="AF53">
-        <v>0</v>
+        <v>13.600000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
@@ -6102,16 +6104,16 @@
         <v>156</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>85.186631759000008</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>5.9586025096942681</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -6120,10 +6122,10 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>-77</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -6138,34 +6140,34 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>9.832055369763145</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>1.966411073952629</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>6.0206249999999999</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>0.26895147486736976</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>-2.1097746204853944</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>0.21097746204853945</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>-1.8415366630123795</v>
       </c>
       <c r="X54">
-        <v>0</v>
+        <v>3.7003294481798843E-2</v>
       </c>
       <c r="Y54">
-        <v>0</v>
+        <v>-3.7673557797680028</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>0.31763768319090752</v>
       </c>
       <c r="AA54">
         <v>0</v>
@@ -6174,16 +6176,16 @@
         <v>0</v>
       </c>
       <c r="AC54">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE54">
-        <v>0</v>
+        <v>42.916666666666664</v>
       </c>
       <c r="AF54">
-        <v>0</v>
+        <v>2.4537386440559095</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
@@ -6200,10 +6202,10 @@
         <v>157</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>93.6</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>18.72</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -6218,10 +6220,10 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>-82.3</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>16.46</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -6236,10 +6238,10 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>10.536350033634287</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>0.48557288018090916</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -6248,22 +6250,22 @@
         <v>0</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>1.4185500000000002</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>0.14185500000000004</v>
       </c>
       <c r="W55">
-        <v>0</v>
+        <v>-3.5667759081346233</v>
       </c>
       <c r="X55">
-        <v>0</v>
+        <v>0.71335518162692468</v>
       </c>
       <c r="Y55">
-        <v>0</v>
+        <v>-5.0697645564899654</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>0.50697645564899652</v>
       </c>
       <c r="AA55">
         <v>0</v>
@@ -6278,10 +6280,10 @@
         <v>0</v>
       </c>
       <c r="AE55">
-        <v>0</v>
+        <v>204.5</v>
       </c>
       <c r="AF55">
-        <v>0</v>
+        <v>20.450000000000003</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
@@ -6298,10 +6300,10 @@
         <v>158</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>88.187381608999999</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>0.72495188087407936</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -6316,10 +6318,10 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>-87.5</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -6334,16 +6336,16 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>10.060688200263057</v>
       </c>
       <c r="R56">
-        <v>0</v>
+        <v>0.37171097903602446</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>6.6549999999999994</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>0.14849242404917495</v>
       </c>
       <c r="U56">
         <v>0</v>
@@ -6352,16 +6354,16 @@
         <v>0</v>
       </c>
       <c r="W56">
-        <v>0</v>
+        <v>-3.2215368249492431</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>8.1858281942174385E-2</v>
       </c>
       <c r="Y56">
-        <v>0</v>
+        <v>-4.6441824779040477</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>0.37256797599682062</v>
       </c>
       <c r="AA56">
         <v>0</v>
@@ -6376,10 +6378,10 @@
         <v>0</v>
       </c>
       <c r="AE56">
-        <v>0</v>
+        <v>102.5</v>
       </c>
       <c r="AF56">
-        <v>0</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
@@ -6396,16 +6398,16 @@
         <v>159</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>104.04393450495884</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>0.6341830766991885</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>37.809999999999995</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>3.7809999999999997</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -6414,10 +6416,10 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>-104</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -6426,22 +6428,22 @@
         <v>0</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>-23.8</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>4.7600000000000007</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>11.516774063594569</v>
       </c>
       <c r="R57">
-        <v>0</v>
+        <v>0.187306981013491</v>
       </c>
       <c r="S57">
-        <v>0</v>
+        <v>8.1416737508306145</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>0.25421187957856911</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -6450,16 +6452,16 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>0</v>
+        <v>-4.6973582092915418</v>
       </c>
       <c r="X57">
-        <v>0</v>
+        <v>0.28668797460396872</v>
       </c>
       <c r="Y57">
-        <v>0</v>
+        <v>-4.89501054918916</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>0.23200116988373351</v>
       </c>
       <c r="AA57">
         <v>0</v>
@@ -6468,16 +6470,16 @@
         <v>0</v>
       </c>
       <c r="AC57">
-        <v>0</v>
+        <v>55.188213787105745</v>
       </c>
       <c r="AD57">
-        <v>0</v>
+        <v>9.8727770120457699</v>
       </c>
       <c r="AE57">
-        <v>0</v>
+        <v>309.04166666666669</v>
       </c>
       <c r="AF57">
-        <v>0</v>
+        <v>5.3066389237130753</v>
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
@@ -6512,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>65.7</v>
+        <v>-65.7</v>
       </c>
       <c r="L58">
         <v>13.14</v>
@@ -6610,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>75.3</v>
+        <v>-75.3</v>
       </c>
       <c r="L59">
         <v>15.06</v>
@@ -6634,10 +6636,10 @@
         <v>1.8124579566122443</v>
       </c>
       <c r="S59">
-        <v>3.2770833929447356</v>
+        <v>3.4536576318955827</v>
       </c>
       <c r="T59">
-        <v>0.55182251053527054</v>
+        <v>0.12659127947609147</v>
       </c>
       <c r="U59">
         <v>0</v>
@@ -6708,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>64.900000000000006</v>
+        <v>-64.900000000000006</v>
       </c>
       <c r="L60">
         <v>12.980000000000002</v>
@@ -6735,7 +6737,7 @@
         <v>5.2024822685932959</v>
       </c>
       <c r="T60">
-        <v>0.52024822685932959</v>
+        <v>1.5607446805779888</v>
       </c>
       <c r="U60">
         <v>0</v>
@@ -6750,10 +6752,10 @@
         <v>0.56786103251262365</v>
       </c>
       <c r="Y60">
-        <v>-1.8646232952887984</v>
+        <v>-1.8690004131831881</v>
       </c>
       <c r="Z60">
-        <v>0.18646232952887987</v>
+        <v>0.18690004131831883</v>
       </c>
       <c r="AA60">
         <v>0</v>
@@ -6806,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>82.9</v>
+        <v>-82.9</v>
       </c>
       <c r="L61">
         <v>16.580000000000002</v>
@@ -7029,7 +7031,7 @@
         <v>5.1496165542037877</v>
       </c>
       <c r="T63">
-        <v>1.0299233108407575</v>
+        <v>1.5448849662611364</v>
       </c>
       <c r="U63">
         <v>0</v>
@@ -7198,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>116</v>
+        <v>-116</v>
       </c>
       <c r="L65">
         <v>23.200000000000003</v>
